--- a/Code/Results/Cases/Case_4_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_72/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.66136272282298</v>
+        <v>24.16710790014911</v>
       </c>
       <c r="C2">
-        <v>27.70436155822511</v>
+        <v>17.21645978077995</v>
       </c>
       <c r="D2">
-        <v>7.363861729199147</v>
+        <v>6.024638979581598</v>
       </c>
       <c r="E2">
-        <v>5.66451498154137</v>
+        <v>6.558167693945621</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.021189422141928</v>
+        <v>3.69894102941331</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.89937332870953</v>
+        <v>19.74809138707936</v>
       </c>
       <c r="N2">
-        <v>19.62907591803229</v>
+        <v>22.3590627182041</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.97765640764985</v>
+        <v>23.42995828404617</v>
       </c>
       <c r="C3">
-        <v>25.53073476276224</v>
+        <v>16.48961580866731</v>
       </c>
       <c r="D3">
-        <v>6.793655902399492</v>
+        <v>5.915984051653375</v>
       </c>
       <c r="E3">
-        <v>5.37328798661121</v>
+        <v>6.529222824216391</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.043751540839663</v>
+        <v>3.705528270886033</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22.03589488528316</v>
+        <v>19.41990098967344</v>
       </c>
       <c r="N3">
-        <v>19.15821529077103</v>
+        <v>22.23343510075372</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.28100551315017</v>
+        <v>22.9751649266292</v>
       </c>
       <c r="C4">
-        <v>24.15727156882861</v>
+        <v>16.03380604724623</v>
       </c>
       <c r="D4">
-        <v>6.432000292221105</v>
+        <v>5.850536758844544</v>
       </c>
       <c r="E4">
-        <v>5.196659360320554</v>
+        <v>6.513224319621575</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.057579522920681</v>
+        <v>3.709765500730165</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.85428996132951</v>
+        <v>19.22291003855044</v>
       </c>
       <c r="N4">
-        <v>18.87644288991659</v>
+        <v>22.15707664679928</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.576293132459</v>
+        <v>22.78959908996511</v>
       </c>
       <c r="C5">
-        <v>23.58687991038564</v>
+        <v>15.84597833201119</v>
       </c>
       <c r="D5">
-        <v>6.281467959557194</v>
+        <v>5.82422010273438</v>
       </c>
       <c r="E5">
-        <v>5.125173114309637</v>
+        <v>6.507152535549103</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.063225889040961</v>
+        <v>3.711540927887756</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.36254548219079</v>
+        <v>19.14387087207875</v>
       </c>
       <c r="N5">
-        <v>18.76324926695914</v>
+        <v>22.12616244835083</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.45844612205905</v>
+        <v>22.75878140610268</v>
       </c>
       <c r="C6">
-        <v>23.49149724495543</v>
+        <v>15.81467380910337</v>
       </c>
       <c r="D6">
-        <v>6.256275011857486</v>
+        <v>5.819872611553483</v>
       </c>
       <c r="E6">
-        <v>5.113331508914929</v>
+        <v>6.506171400412879</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.064164612953741</v>
+        <v>3.711838687097172</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.28025214292054</v>
+        <v>19.13082401048177</v>
       </c>
       <c r="N6">
-        <v>18.74454659056378</v>
+        <v>22.12104159471513</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.2715566234168</v>
+        <v>22.97266284017457</v>
       </c>
       <c r="C7">
-        <v>24.14962346084273</v>
+        <v>16.03128092512261</v>
       </c>
       <c r="D7">
-        <v>6.429983238414676</v>
+        <v>5.850180365528781</v>
       </c>
       <c r="E7">
-        <v>5.195693333981031</v>
+        <v>6.513140618739086</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.057655604522322</v>
+        <v>3.709789247116203</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.84770054110132</v>
+        <v>19.22183895317757</v>
       </c>
       <c r="N7">
-        <v>18.87490996974245</v>
+        <v>22.15665889832235</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.74546391060213</v>
+        <v>23.91357468018613</v>
       </c>
       <c r="C8">
-        <v>26.96233982873782</v>
+        <v>16.9679981618407</v>
       </c>
       <c r="D8">
-        <v>7.169487091319894</v>
+        <v>5.986932879289034</v>
       </c>
       <c r="E8">
-        <v>5.563599233453347</v>
+        <v>6.547820566037451</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.028985721639035</v>
+        <v>3.70117249883181</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.26407526596142</v>
+        <v>19.63405397098619</v>
       </c>
       <c r="N8">
-        <v>19.46505632989632</v>
+        <v>22.31558928402432</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40.2313893199821</v>
+        <v>25.72849709810658</v>
       </c>
       <c r="C9">
-        <v>32.22377434894393</v>
+        <v>18.71730009657852</v>
       </c>
       <c r="D9">
-        <v>8.542037132230442</v>
+        <v>6.263605828064874</v>
       </c>
       <c r="E9">
-        <v>6.44372328037124</v>
+        <v>6.629800076920504</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.971563021206336</v>
+        <v>3.685790659373864</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>27.75157365795548</v>
+        <v>20.47378667878162</v>
       </c>
       <c r="N9">
-        <v>20.69335588766518</v>
+        <v>22.63310062134662</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.91444721495962</v>
+        <v>27.02766569669353</v>
       </c>
       <c r="C10">
-        <v>36.03638094602135</v>
+        <v>19.93533123039377</v>
       </c>
       <c r="D10">
-        <v>9.528816903282646</v>
+        <v>6.469988507793244</v>
       </c>
       <c r="E10">
-        <v>7.149388943824457</v>
+        <v>6.698375190414309</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.926781999141026</v>
+        <v>3.675395372604525</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>30.97994038190783</v>
+        <v>21.10383406589022</v>
       </c>
       <c r="N10">
-        <v>21.66422499678306</v>
+        <v>22.86950115167006</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>47.06690019975795</v>
+        <v>27.60833672216116</v>
       </c>
       <c r="C11">
-        <v>37.79398243485874</v>
+        <v>20.47255521224907</v>
       </c>
       <c r="D11">
-        <v>9.981540846120836</v>
+        <v>6.564125350723801</v>
       </c>
       <c r="E11">
-        <v>7.473311449567563</v>
+        <v>6.731335323069743</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.905222172053165</v>
+        <v>3.670859007901035</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>32.46174717703138</v>
+        <v>21.3920391472484</v>
       </c>
       <c r="N11">
-        <v>22.12964251261695</v>
+        <v>22.97762362517658</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47.89016181314764</v>
+        <v>27.82652360631662</v>
       </c>
       <c r="C12">
-        <v>38.46723298306943</v>
+        <v>20.67340692928316</v>
       </c>
       <c r="D12">
-        <v>10.15458293132192</v>
+        <v>6.599774554334813</v>
       </c>
       <c r="E12">
-        <v>7.597114148683702</v>
+        <v>6.744065319666583</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.896808879150248</v>
+        <v>3.669168572069185</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>33.0282521084136</v>
+        <v>21.50130157910364</v>
       </c>
       <c r="N12">
-        <v>22.31044392387345</v>
+        <v>23.01864125335427</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47.71239258517825</v>
+        <v>27.77961199338788</v>
       </c>
       <c r="C13">
-        <v>38.32180624682714</v>
+        <v>20.63026708057065</v>
       </c>
       <c r="D13">
-        <v>10.11722247812052</v>
+        <v>6.592097324839267</v>
       </c>
       <c r="E13">
-        <v>7.570385720910995</v>
+        <v>6.741312711705929</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.898633496011513</v>
+        <v>3.669531424350434</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>32.90593553605797</v>
+        <v>21.47776599535162</v>
       </c>
       <c r="N13">
-        <v>22.2712789649408</v>
+        <v>23.00980424095037</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47.13443080563042</v>
+        <v>27.62632232872977</v>
       </c>
       <c r="C14">
-        <v>37.84918598921279</v>
+        <v>20.48913199963211</v>
       </c>
       <c r="D14">
-        <v>9.995737422879985</v>
+        <v>6.567058393033451</v>
       </c>
       <c r="E14">
-        <v>7.483468774997013</v>
+        <v>6.732377673848394</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.904535556194185</v>
+        <v>3.670719387550778</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>32.50822127591903</v>
+        <v>21.4010263012989</v>
       </c>
       <c r="N14">
-        <v>22.14441755500052</v>
+        <v>22.98099674421707</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.78165899690402</v>
+        <v>27.5322004860108</v>
       </c>
       <c r="C15">
-        <v>37.56085157255734</v>
+        <v>20.40234197142329</v>
       </c>
       <c r="D15">
-        <v>9.921571642810765</v>
+        <v>6.551720531458876</v>
       </c>
       <c r="E15">
-        <v>7.430404290307329</v>
+        <v>6.726936935438946</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.908115461201085</v>
+        <v>3.671450607113902</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>32.26543631727542</v>
+        <v>21.35403433745088</v>
       </c>
       <c r="N15">
-        <v>22.06734675718185</v>
+        <v>22.96336066177886</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44.77460917951615</v>
+        <v>26.98949073858909</v>
       </c>
       <c r="C16">
-        <v>35.92231970650304</v>
+        <v>19.89986894169055</v>
       </c>
       <c r="D16">
-        <v>9.499388867595837</v>
+        <v>6.463838526602972</v>
       </c>
       <c r="E16">
-        <v>7.128334193450568</v>
+        <v>6.696256259595799</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.928161041559998</v>
+        <v>3.675695683237707</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>30.8836350686069</v>
+        <v>21.08502230785357</v>
       </c>
       <c r="N16">
-        <v>21.63437451051698</v>
+        <v>22.86244598748441</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.55201318209441</v>
+        <v>26.65375044918295</v>
       </c>
       <c r="C17">
-        <v>34.92569259756972</v>
+        <v>19.58717823483692</v>
       </c>
       <c r="D17">
-        <v>9.242010867080904</v>
+        <v>6.409965296547476</v>
       </c>
       <c r="E17">
-        <v>6.944205227680173</v>
+        <v>6.67788323998519</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.940106913859248</v>
+        <v>3.678348995868134</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>30.04142363011983</v>
+        <v>20.92032542624214</v>
       </c>
       <c r="N17">
-        <v>21.37552606800932</v>
+        <v>22.80068045838435</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.85050588079594</v>
+        <v>26.45968093829499</v>
       </c>
       <c r="C18">
-        <v>34.35431203981209</v>
+        <v>19.40574727252541</v>
       </c>
       <c r="D18">
-        <v>9.094254139039014</v>
+        <v>6.379004583307905</v>
       </c>
       <c r="E18">
-        <v>6.838518069651813</v>
+        <v>6.667482028763039</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.946871959071289</v>
+        <v>3.67989324824508</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>29.55798330882327</v>
+        <v>20.82575213109812</v>
       </c>
       <c r="N18">
-        <v>21.2287916755077</v>
+        <v>22.7652100093014</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>42.61315573433315</v>
+        <v>26.3938142854957</v>
       </c>
       <c r="C19">
-        <v>34.16106339522832</v>
+        <v>19.34405180055258</v>
       </c>
       <c r="D19">
-        <v>9.044248235048318</v>
+        <v>6.368527318021834</v>
       </c>
       <c r="E19">
-        <v>6.802753898551934</v>
+        <v>6.663989094968178</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.949146229369382</v>
+        <v>3.680419229561112</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>29.39438036543686</v>
+        <v>20.7937612442683</v>
       </c>
       <c r="N19">
-        <v>21.17945106240884</v>
+        <v>22.75321014223381</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.68195459937858</v>
+        <v>26.68959162343984</v>
       </c>
       <c r="C20">
-        <v>35.0315671186362</v>
+        <v>19.62062939348901</v>
       </c>
       <c r="D20">
-        <v>9.269373763848131</v>
+        <v>6.415697784990328</v>
       </c>
       <c r="E20">
-        <v>6.963779009584205</v>
+        <v>6.67982188630188</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.938846690581558</v>
+        <v>3.678064671211579</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>30.13095614177255</v>
+        <v>20.93784230744882</v>
       </c>
       <c r="N20">
-        <v>21.4028517183137</v>
+        <v>22.80724983571918</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47.30392051451395</v>
+        <v>27.67139498338416</v>
       </c>
       <c r="C21">
-        <v>37.98775408140381</v>
+        <v>20.53065804840229</v>
       </c>
       <c r="D21">
-        <v>10.03136648386283</v>
+        <v>6.574413159323742</v>
       </c>
       <c r="E21">
-        <v>7.50896028163996</v>
+        <v>6.734995404034749</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.902809515949478</v>
+        <v>3.670369713047738</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>32.62485908943553</v>
+        <v>21.42356401499906</v>
       </c>
       <c r="N21">
-        <v>22.18154464057434</v>
+        <v>22.98945627542455</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.72273471374648</v>
+        <v>28.3030629355256</v>
       </c>
       <c r="C22">
-        <v>39.96807567688386</v>
+        <v>21.11029957313935</v>
       </c>
       <c r="D22">
-        <v>10.53956859775186</v>
+        <v>6.678137274478038</v>
       </c>
       <c r="E22">
-        <v>7.872485767108657</v>
+        <v>6.772501476859548</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.877742916461278</v>
+        <v>3.665500106752329</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>34.28887925353493</v>
+        <v>21.7416967740831</v>
       </c>
       <c r="N22">
-        <v>22.71796460635036</v>
+        <v>23.10896529937555</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48.42480702274832</v>
+        <v>27.96691022087727</v>
       </c>
       <c r="C23">
-        <v>38.90477692588316</v>
+        <v>20.80236322088698</v>
       </c>
       <c r="D23">
-        <v>10.26692919498685</v>
+        <v>6.622789342066025</v>
       </c>
       <c r="E23">
-        <v>7.677484354820129</v>
+        <v>6.752353180431358</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.891294910344379</v>
+        <v>3.668084611731771</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>33.39608936327487</v>
+        <v>21.57187393887892</v>
       </c>
       <c r="N23">
-        <v>22.42863439050426</v>
+        <v>23.04514535063472</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>43.62320413496832</v>
+        <v>26.67339107608084</v>
       </c>
       <c r="C24">
-        <v>34.98369658545478</v>
+        <v>19.60551128576492</v>
       </c>
       <c r="D24">
-        <v>9.257002407123526</v>
+        <v>6.413106087800631</v>
       </c>
       <c r="E24">
-        <v>6.954929220279446</v>
+        <v>6.678944920316547</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.939416752285525</v>
+        <v>3.678193155722847</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>30.09047637330242</v>
+        <v>20.92992256515576</v>
       </c>
       <c r="N24">
-        <v>21.39049138875353</v>
+        <v>22.80427969683783</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.50165853451994</v>
+        <v>25.24246425610249</v>
       </c>
       <c r="C25">
-        <v>30.81882190047455</v>
+        <v>18.25498960292135</v>
       </c>
       <c r="D25">
-        <v>8.176784316270371</v>
+        <v>6.188063895605329</v>
       </c>
       <c r="E25">
-        <v>6.182835051291113</v>
+        <v>6.606142203704371</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.987387874538904</v>
+        <v>3.689791472991616</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>26.55706856926339</v>
+        <v>20.243881766341</v>
       </c>
       <c r="N25">
-        <v>20.35133478563217</v>
+        <v>22.54662313741058</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_72/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.16710790014911</v>
+        <v>34.66136272282297</v>
       </c>
       <c r="C2">
-        <v>17.21645978077995</v>
+        <v>27.70436155822505</v>
       </c>
       <c r="D2">
-        <v>6.024638979581598</v>
+        <v>7.363861729199132</v>
       </c>
       <c r="E2">
-        <v>6.558167693945621</v>
+        <v>5.66451498154133</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.69894102941331</v>
+        <v>2.021189422141924</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.74809138707936</v>
+        <v>23.8993733287095</v>
       </c>
       <c r="N2">
-        <v>22.3590627182041</v>
+        <v>19.62907591803233</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.42995828404617</v>
+        <v>31.97765640765003</v>
       </c>
       <c r="C3">
-        <v>16.48961580866731</v>
+        <v>25.53073476276225</v>
       </c>
       <c r="D3">
-        <v>5.915984051653375</v>
+        <v>6.793655902399342</v>
       </c>
       <c r="E3">
-        <v>6.529222824216391</v>
+        <v>5.373287986611265</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.705528270886033</v>
+        <v>2.043751540839791</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.41990098967344</v>
+        <v>22.0358948852832</v>
       </c>
       <c r="N3">
-        <v>22.23343510075372</v>
+        <v>19.15821529077094</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.9751649266292</v>
+        <v>30.28100551315014</v>
       </c>
       <c r="C4">
-        <v>16.03380604724623</v>
+        <v>24.15727156882841</v>
       </c>
       <c r="D4">
-        <v>5.850536758844544</v>
+        <v>6.432000292221105</v>
       </c>
       <c r="E4">
-        <v>6.513224319621575</v>
+        <v>5.196659360320526</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.709765500730165</v>
+        <v>2.057579522920809</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.22291003855044</v>
+        <v>20.85428996132945</v>
       </c>
       <c r="N4">
-        <v>22.15707664679928</v>
+        <v>18.87644288991658</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.78959908996511</v>
+        <v>29.57629313245888</v>
       </c>
       <c r="C5">
-        <v>15.84597833201119</v>
+        <v>23.58687991038566</v>
       </c>
       <c r="D5">
-        <v>5.82422010273438</v>
+        <v>6.281467959557048</v>
       </c>
       <c r="E5">
-        <v>6.507152535549103</v>
+        <v>5.125173114309592</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.711540927887756</v>
+        <v>2.063225889041232</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.14387087207875</v>
+        <v>20.36254548219071</v>
       </c>
       <c r="N5">
-        <v>22.12616244835083</v>
+        <v>18.76324926695921</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.75878140610268</v>
+        <v>29.45844612205913</v>
       </c>
       <c r="C6">
-        <v>15.81467380910337</v>
+        <v>23.4914972449555</v>
       </c>
       <c r="D6">
-        <v>5.819872611553483</v>
+        <v>6.256275011857458</v>
       </c>
       <c r="E6">
-        <v>6.506171400412879</v>
+        <v>5.113331508914971</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.711838687097172</v>
+        <v>2.064164612953348</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.13082401048177</v>
+        <v>20.28025214292066</v>
       </c>
       <c r="N6">
-        <v>22.12104159471513</v>
+        <v>18.74454659056362</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.97266284017457</v>
+        <v>30.27155662341673</v>
       </c>
       <c r="C7">
-        <v>16.03128092512261</v>
+        <v>24.14962346084261</v>
       </c>
       <c r="D7">
-        <v>5.850180365528781</v>
+        <v>6.429983238414722</v>
       </c>
       <c r="E7">
-        <v>6.513140618739086</v>
+        <v>5.195693333981048</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.709789247116203</v>
+        <v>2.057655604522457</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.22183895317757</v>
+        <v>20.84770054110129</v>
       </c>
       <c r="N7">
-        <v>22.15665889832235</v>
+        <v>18.87490996974242</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91357468018613</v>
+        <v>33.74546391060224</v>
       </c>
       <c r="C8">
-        <v>16.9679981618407</v>
+        <v>26.96233982873787</v>
       </c>
       <c r="D8">
-        <v>5.986932879289034</v>
+        <v>7.169487091319867</v>
       </c>
       <c r="E8">
-        <v>6.547820566037451</v>
+        <v>5.563599233453368</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.70117249883181</v>
+        <v>2.028985721638898</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.63405397098619</v>
+        <v>23.26407526596145</v>
       </c>
       <c r="N8">
-        <v>22.31558928402432</v>
+        <v>19.46505632989637</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.72849709810658</v>
+        <v>40.23138931998218</v>
       </c>
       <c r="C9">
-        <v>18.71730009657852</v>
+        <v>32.22377434894398</v>
       </c>
       <c r="D9">
-        <v>6.263605828064874</v>
+        <v>8.542037132230309</v>
       </c>
       <c r="E9">
-        <v>6.629800076920504</v>
+        <v>6.443723280371219</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.685790659373864</v>
+        <v>1.971563021206077</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.47378667878162</v>
+        <v>27.75157365795554</v>
       </c>
       <c r="N9">
-        <v>22.63310062134662</v>
+        <v>20.69335588766511</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.02766569669353</v>
+        <v>44.91444721495976</v>
       </c>
       <c r="C10">
-        <v>19.93533123039377</v>
+        <v>36.03638094602135</v>
       </c>
       <c r="D10">
-        <v>6.469988507793244</v>
+        <v>9.528816903282621</v>
       </c>
       <c r="E10">
-        <v>6.698375190414309</v>
+        <v>7.149388943824479</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.675395372604525</v>
+        <v>1.926781999141187</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.10383406589022</v>
+        <v>30.97994038190789</v>
       </c>
       <c r="N10">
-        <v>22.86950115167006</v>
+        <v>21.66422499678309</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.60833672216116</v>
+        <v>47.06690019975805</v>
       </c>
       <c r="C11">
-        <v>20.47255521224907</v>
+        <v>37.79398243485904</v>
       </c>
       <c r="D11">
-        <v>6.564125350723801</v>
+        <v>9.981540846120819</v>
       </c>
       <c r="E11">
-        <v>6.731335323069743</v>
+        <v>7.4733114495675</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.670859007901035</v>
+        <v>1.905222172053041</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.3920391472484</v>
+        <v>32.46174717703149</v>
       </c>
       <c r="N11">
-        <v>22.97762362517658</v>
+        <v>22.12964251261705</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.82652360631662</v>
+        <v>47.89016181314788</v>
       </c>
       <c r="C12">
-        <v>20.67340692928316</v>
+        <v>38.46723298306977</v>
       </c>
       <c r="D12">
-        <v>6.599774554334813</v>
+        <v>10.15458293132185</v>
       </c>
       <c r="E12">
-        <v>6.744065319666583</v>
+        <v>7.597114148683596</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.669168572069185</v>
+        <v>1.896808879150242</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.50130157910364</v>
+        <v>33.02825210841374</v>
       </c>
       <c r="N12">
-        <v>23.01864125335427</v>
+        <v>22.31044392387347</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.77961199338788</v>
+        <v>47.71239258517804</v>
       </c>
       <c r="C13">
-        <v>20.63026708057065</v>
+        <v>38.32180624682691</v>
       </c>
       <c r="D13">
-        <v>6.592097324839267</v>
+        <v>10.11722247812047</v>
       </c>
       <c r="E13">
-        <v>6.741312711705929</v>
+        <v>7.570385720910962</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.669531424350434</v>
+        <v>1.898633496011256</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.47776599535162</v>
+        <v>32.90593553605781</v>
       </c>
       <c r="N13">
-        <v>23.00980424095037</v>
+        <v>22.27127896494077</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.62632232872977</v>
+        <v>47.13443080563031</v>
       </c>
       <c r="C14">
-        <v>20.48913199963211</v>
+        <v>37.8491859892126</v>
       </c>
       <c r="D14">
-        <v>6.567058393033451</v>
+        <v>9.995737422879913</v>
       </c>
       <c r="E14">
-        <v>6.732377673848394</v>
+        <v>7.483468774997058</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.670719387550778</v>
+        <v>1.904535556194309</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.4010263012989</v>
+        <v>32.50822127591891</v>
       </c>
       <c r="N14">
-        <v>22.98099674421707</v>
+        <v>22.14441755500046</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.5322004860108</v>
+        <v>46.78165899690421</v>
       </c>
       <c r="C15">
-        <v>20.40234197142329</v>
+        <v>37.56085157255744</v>
       </c>
       <c r="D15">
-        <v>6.551720531458876</v>
+        <v>9.921571642810809</v>
       </c>
       <c r="E15">
-        <v>6.726936935438946</v>
+        <v>7.430404290307213</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.671450607113902</v>
+        <v>1.908115461200927</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.35403433745088</v>
+        <v>32.26543631727547</v>
       </c>
       <c r="N15">
-        <v>22.96336066177886</v>
+        <v>22.06734675718183</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.98949073858909</v>
+        <v>44.77460917951639</v>
       </c>
       <c r="C16">
-        <v>19.89986894169055</v>
+        <v>35.92231970650322</v>
       </c>
       <c r="D16">
-        <v>6.463838526602972</v>
+        <v>9.499388867595918</v>
       </c>
       <c r="E16">
-        <v>6.696256259595799</v>
+        <v>7.128334193450558</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.675695683237707</v>
+        <v>1.928161041559979</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.08502230785357</v>
+        <v>30.88363506860708</v>
       </c>
       <c r="N16">
-        <v>22.86244598748441</v>
+        <v>21.63437451051703</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.65375044918295</v>
+        <v>43.55201318209416</v>
       </c>
       <c r="C17">
-        <v>19.58717823483692</v>
+        <v>34.92569259756947</v>
       </c>
       <c r="D17">
-        <v>6.409965296547476</v>
+        <v>9.242010867080873</v>
       </c>
       <c r="E17">
-        <v>6.67788323998519</v>
+        <v>6.94420522768019</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.678348995868134</v>
+        <v>1.940106913859106</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.92032542624214</v>
+        <v>30.04142363011967</v>
       </c>
       <c r="N17">
-        <v>22.80068045838435</v>
+        <v>21.3755260680092</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.45968093829499</v>
+        <v>42.85050588079577</v>
       </c>
       <c r="C18">
-        <v>19.40574727252541</v>
+        <v>34.35431203981203</v>
       </c>
       <c r="D18">
-        <v>6.379004583307905</v>
+        <v>9.094254139039064</v>
       </c>
       <c r="E18">
-        <v>6.667482028763039</v>
+        <v>6.838518069651839</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.67989324824508</v>
+        <v>1.94687195907103</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.82575213109812</v>
+        <v>29.55798330882318</v>
       </c>
       <c r="N18">
-        <v>22.7652100093014</v>
+        <v>21.22879167550757</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.3938142854957</v>
+        <v>42.6131557343336</v>
       </c>
       <c r="C19">
-        <v>19.34405180055258</v>
+        <v>34.16106339522874</v>
       </c>
       <c r="D19">
-        <v>6.368527318021834</v>
+        <v>9.044248235048467</v>
       </c>
       <c r="E19">
-        <v>6.663989094968178</v>
+        <v>6.80275389855182</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.680419229561112</v>
+        <v>1.949146229369288</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.7937612442683</v>
+        <v>29.39438036543717</v>
       </c>
       <c r="N19">
-        <v>22.75321014223381</v>
+        <v>21.17945106240887</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.68959162343984</v>
+        <v>43.68195459937881</v>
       </c>
       <c r="C20">
-        <v>19.62062939348901</v>
+        <v>35.03156711863635</v>
       </c>
       <c r="D20">
-        <v>6.415697784990328</v>
+        <v>9.269373763848145</v>
       </c>
       <c r="E20">
-        <v>6.67982188630188</v>
+        <v>6.963779009584245</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.678064671211579</v>
+        <v>1.93884669058142</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.93784230744882</v>
+        <v>30.13095614177271</v>
       </c>
       <c r="N20">
-        <v>22.80724983571918</v>
+        <v>21.40285171831379</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.67139498338416</v>
+        <v>47.30392051451406</v>
       </c>
       <c r="C21">
-        <v>20.53065804840229</v>
+        <v>37.98775408140402</v>
       </c>
       <c r="D21">
-        <v>6.574413159323742</v>
+        <v>10.03136648386299</v>
       </c>
       <c r="E21">
-        <v>6.734995404034749</v>
+        <v>7.508960281639864</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.670369713047738</v>
+        <v>1.902809515949468</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.42356401499906</v>
+        <v>32.62485908943558</v>
       </c>
       <c r="N21">
-        <v>22.98945627542455</v>
+        <v>22.18154464057437</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3030629355256</v>
+        <v>49.72273471374614</v>
       </c>
       <c r="C22">
-        <v>21.11029957313935</v>
+        <v>39.96807567688349</v>
       </c>
       <c r="D22">
-        <v>6.678137274478038</v>
+        <v>10.53956859775177</v>
       </c>
       <c r="E22">
-        <v>6.772501476859548</v>
+        <v>7.872485767108847</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.665500106752329</v>
+        <v>1.877742916461033</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.7416967740831</v>
+        <v>34.28887925353476</v>
       </c>
       <c r="N22">
-        <v>23.10896529937555</v>
+        <v>22.71796460635028</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.96691022087727</v>
+        <v>48.42480702274881</v>
       </c>
       <c r="C23">
-        <v>20.80236322088698</v>
+        <v>38.9047769258835</v>
       </c>
       <c r="D23">
-        <v>6.622789342066025</v>
+        <v>10.26692919498698</v>
       </c>
       <c r="E23">
-        <v>6.752353180431358</v>
+        <v>7.67748435481999</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.668084611731771</v>
+        <v>1.891294910344275</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.57187393887892</v>
+        <v>33.3960893632751</v>
       </c>
       <c r="N23">
-        <v>23.04514535063472</v>
+        <v>22.42863439050437</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.67339107608084</v>
+        <v>43.62320413496814</v>
       </c>
       <c r="C24">
-        <v>19.60551128576492</v>
+        <v>34.98369658545464</v>
       </c>
       <c r="D24">
-        <v>6.413106087800631</v>
+        <v>9.25700240712354</v>
       </c>
       <c r="E24">
-        <v>6.678944920316547</v>
+        <v>6.954929220279507</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.678193155722847</v>
+        <v>1.939416752285414</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.92992256515576</v>
+        <v>30.09047637330234</v>
       </c>
       <c r="N24">
-        <v>22.80427969683783</v>
+        <v>21.39049138875351</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.24246425610249</v>
+        <v>38.5016585345202</v>
       </c>
       <c r="C25">
-        <v>18.25498960292135</v>
+        <v>30.81882190047476</v>
       </c>
       <c r="D25">
-        <v>6.188063895605329</v>
+        <v>8.176784316270481</v>
       </c>
       <c r="E25">
-        <v>6.606142203704371</v>
+        <v>6.182835051290994</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.689791472991616</v>
+        <v>1.987387874539034</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.243881766341</v>
+        <v>26.55706856926351</v>
       </c>
       <c r="N25">
-        <v>22.54662313741058</v>
+        <v>20.35133478563215</v>
       </c>
       <c r="O25">
         <v>0</v>
